--- a/@@KBRO PM_Template_20210503.xlsx
+++ b/@@KBRO PM_Template_20210503.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="20520" windowHeight="4260"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="20520" windowHeight="4260" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="318">
   <si>
     <t>IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,15 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>show version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show environment </t>
-  </si>
-  <si>
-    <t>show tech system alarms list</t>
-  </si>
-  <si>
     <t>show environment fans</t>
   </si>
   <si>
@@ -258,21 +249,6 @@
   </si>
   <si>
     <t>show environment detailed</t>
-  </si>
-  <si>
-    <t>show storage disk volume size</t>
-  </si>
-  <si>
-    <t>show tech interfaces interface counters in-error-packets</t>
-  </si>
-  <si>
-    <t>show tech interfaces interface counters out-error-packets</t>
-  </si>
-  <si>
-    <t>show tech interfaces interface counters in-bits-rate</t>
-  </si>
-  <si>
-    <t>show tech interfaces interface counters out-bits-rate</t>
   </si>
   <si>
     <t>cBR8</t>
@@ -2123,12 +2099,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>citrix_pm</t>
-  </si>
-  <si>
-    <t>citrix_pm@123</t>
-  </si>
-  <si>
     <t>10.222.56.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2161,13 +2131,56 @@
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*show environment </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show storage disk volume size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show storage disk physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show tech interfaces interface counters in-bits-rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show tech interfaces interface counters out-bits-rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show tech interfaces interface counters in-error-packets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show tech interfaces interface counters out-error-packets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show tech system alarms summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show tech system alarms list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show running-config | include hostname</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2284,6 +2297,20 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2333,7 +2360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2454,6 +2481,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3381,9 +3414,9 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3411,273 +3444,273 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>59</v>
@@ -3688,10 +3721,10 @@
         <v>60</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>59</v>
@@ -3699,27 +3732,27 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D23" s="34" t="s">
         <v>59</v>
@@ -3727,125 +3760,109 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>307</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>307</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3896,13 +3913,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>59</v>
@@ -3910,13 +3927,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>59</v>
@@ -3924,13 +3941,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>59</v>
@@ -3941,10 +3958,10 @@
         <v>60</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>59</v>
@@ -3952,41 +3969,41 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>59</v>
@@ -3994,13 +4011,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>59</v>
@@ -4008,13 +4025,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>59</v>
@@ -4022,13 +4039,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>59</v>
@@ -4036,13 +4053,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>59</v>
@@ -4050,13 +4067,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>59</v>
@@ -4064,13 +4081,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>59</v>
@@ -4078,13 +4095,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>59</v>
@@ -4092,13 +4109,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>59</v>
@@ -4106,13 +4123,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>59</v>
@@ -4120,13 +4137,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>59</v>
@@ -4134,13 +4151,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>59</v>
@@ -4148,13 +4165,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>59</v>
@@ -4162,13 +4179,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>59</v>
@@ -4176,13 +4193,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>59</v>
@@ -4190,13 +4207,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>59</v>
@@ -4204,13 +4221,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>59</v>
@@ -4218,13 +4235,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>59</v>
@@ -4232,13 +4249,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>59</v>
@@ -4246,13 +4263,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>59</v>
@@ -4260,13 +4277,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>59</v>
@@ -4274,13 +4291,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>59</v>
@@ -4288,13 +4305,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>59</v>
@@ -4302,13 +4319,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>59</v>
@@ -4316,13 +4333,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>59</v>
@@ -4330,13 +4347,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>59</v>
@@ -4344,13 +4361,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>59</v>
@@ -4358,13 +4375,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>59</v>
@@ -4372,13 +4389,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>59</v>
@@ -4386,13 +4403,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>59</v>
@@ -4400,13 +4417,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>59</v>
@@ -4414,13 +4431,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>59</v>
@@ -4428,13 +4445,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>59</v>
@@ -4442,13 +4459,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>59</v>
@@ -4456,13 +4473,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>59</v>
@@ -4470,13 +4487,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>59</v>
@@ -4531,254 +4548,254 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4830,265 +4847,265 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>59</v>
@@ -5099,10 +5116,10 @@
         <v>60</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>59</v>
@@ -5110,27 +5127,27 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>59</v>
@@ -5308,7 +5325,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -5353,22 +5370,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -5378,7 +5395,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
@@ -5393,7 +5410,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -5413,12 +5430,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -5438,22 +5455,22 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -5463,22 +5480,22 @@
     </row>
     <row r="25" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
@@ -5701,72 +5718,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5781,11 +5798,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5800,88 +5817,103 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>61</v>
+      <c r="A2" s="52" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>62</v>
+      <c r="A3" s="49" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>63</v>
+      <c r="A4" s="49" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>65</v>
+      <c r="A5" s="49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>66</v>
+      <c r="A7" s="49" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>282</v>
+      <c r="A8" s="49" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>67</v>
+      <c r="A9" s="49" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>283</v>
+      <c r="A10" s="49" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>284</v>
+      <c r="A11" s="51" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>285</v>
+      <c r="A12" s="49" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>287</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5909,47 +5941,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -5957,22 +5989,22 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6005,42 +6037,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
